--- a/Code/Results/Cases/Case_3_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007401187934513</v>
+        <v>1.047044734400626</v>
       </c>
       <c r="D2">
-        <v>1.02719937105276</v>
+        <v>1.052466404352467</v>
       </c>
       <c r="E2">
-        <v>1.022069470743797</v>
+        <v>1.054340431559038</v>
       </c>
       <c r="F2">
-        <v>1.03174946589717</v>
+        <v>1.064609835100087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045707125294239</v>
+        <v>1.038029452620505</v>
       </c>
       <c r="J2">
-        <v>1.029362761959042</v>
+        <v>1.052095896572654</v>
       </c>
       <c r="K2">
-        <v>1.038292347204182</v>
+        <v>1.055215058576436</v>
       </c>
       <c r="L2">
-        <v>1.033229672104295</v>
+        <v>1.057083911176821</v>
       </c>
       <c r="M2">
-        <v>1.042783514725915</v>
+        <v>1.067325308703815</v>
       </c>
       <c r="N2">
-        <v>1.013044311190114</v>
+        <v>1.02112391404475</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013282456892378</v>
+        <v>1.048272115889042</v>
       </c>
       <c r="D3">
-        <v>1.031716047031035</v>
+        <v>1.053424818691119</v>
       </c>
       <c r="E3">
-        <v>1.027013503363858</v>
+        <v>1.055421418262427</v>
       </c>
       <c r="F3">
-        <v>1.036966193035235</v>
+        <v>1.065751470073832</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047161555011852</v>
+        <v>1.038258200611557</v>
       </c>
       <c r="J3">
-        <v>1.03341746337129</v>
+        <v>1.052970224662383</v>
       </c>
       <c r="K3">
-        <v>1.041958581569993</v>
+        <v>1.055985950634162</v>
       </c>
       <c r="L3">
-        <v>1.037312025798315</v>
+        <v>1.057977437212162</v>
       </c>
       <c r="M3">
-        <v>1.047146962299125</v>
+        <v>1.068281364930155</v>
       </c>
       <c r="N3">
-        <v>1.01445313600361</v>
+        <v>1.021422019144648</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016996774736543</v>
+        <v>1.049066238001243</v>
       </c>
       <c r="D4">
-        <v>1.034570771316696</v>
+        <v>1.054044687540243</v>
       </c>
       <c r="E4">
-        <v>1.030142031654659</v>
+        <v>1.05612111705602</v>
       </c>
       <c r="F4">
-        <v>1.040267102510364</v>
+        <v>1.066490411094013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048068555808777</v>
+        <v>1.038404714845887</v>
       </c>
       <c r="J4">
-        <v>1.035975472506987</v>
+        <v>1.053535382884935</v>
       </c>
       <c r="K4">
-        <v>1.044269120790575</v>
+        <v>1.056483859536556</v>
       </c>
       <c r="L4">
-        <v>1.039889786228903</v>
+        <v>1.058555240284797</v>
       </c>
       <c r="M4">
-        <v>1.049902665862184</v>
+        <v>1.068899637731533</v>
       </c>
       <c r="N4">
-        <v>1.015341082701012</v>
+        <v>1.021614524083828</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01853740010518</v>
+        <v>1.049400070545994</v>
       </c>
       <c r="D5">
-        <v>1.035755303257931</v>
+        <v>1.054305211671077</v>
       </c>
       <c r="E5">
-        <v>1.031441085150986</v>
+        <v>1.056415325838009</v>
       </c>
       <c r="F5">
-        <v>1.041637689500029</v>
+        <v>1.066801117040787</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048441938685612</v>
+        <v>1.038465950209697</v>
       </c>
       <c r="J5">
-        <v>1.037035774985429</v>
+        <v>1.053772834888132</v>
       </c>
       <c r="K5">
-        <v>1.045226250434472</v>
+        <v>1.056692963213635</v>
       </c>
       <c r="L5">
-        <v>1.040958823874476</v>
+        <v>1.058798061353286</v>
       </c>
       <c r="M5">
-        <v>1.051045601629334</v>
+        <v>1.06915947429459</v>
       </c>
       <c r="N5">
-        <v>1.015708925887729</v>
+        <v>1.02169536021553</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018794880975955</v>
+        <v>1.049456121588951</v>
       </c>
       <c r="D6">
-        <v>1.035953295187843</v>
+        <v>1.0543489508038</v>
       </c>
       <c r="E6">
-        <v>1.031658273269551</v>
+        <v>1.056464728059505</v>
       </c>
       <c r="F6">
-        <v>1.041866834633777</v>
+        <v>1.066853289194169</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048504173739504</v>
+        <v>1.038476210835503</v>
       </c>
       <c r="J6">
-        <v>1.037212937544499</v>
+        <v>1.053812695909432</v>
       </c>
       <c r="K6">
-        <v>1.045386138540932</v>
+        <v>1.056728059919863</v>
       </c>
       <c r="L6">
-        <v>1.041137478059984</v>
+        <v>1.058838826979425</v>
       </c>
       <c r="M6">
-        <v>1.0512366112975</v>
+        <v>1.069203097015113</v>
       </c>
       <c r="N6">
-        <v>1.015770374782639</v>
+        <v>1.021708927512667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017017441426069</v>
+        <v>1.049070698750257</v>
       </c>
       <c r="D7">
-        <v>1.034586659529288</v>
+        <v>1.05404816894585</v>
       </c>
       <c r="E7">
-        <v>1.030159452326216</v>
+        <v>1.056125048069448</v>
       </c>
       <c r="F7">
-        <v>1.040285482642246</v>
+        <v>1.066494562544371</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048073575775248</v>
+        <v>1.038405534487151</v>
       </c>
       <c r="J7">
-        <v>1.035989698783671</v>
+        <v>1.053538556281278</v>
       </c>
       <c r="K7">
-        <v>1.044281965161341</v>
+        <v>1.056486654442948</v>
       </c>
       <c r="L7">
-        <v>1.039904127545572</v>
+        <v>1.05855848521405</v>
       </c>
       <c r="M7">
-        <v>1.049917998136852</v>
+        <v>1.06890311001474</v>
       </c>
       <c r="N7">
-        <v>1.015346018979425</v>
+        <v>1.021615604585159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009408291598088</v>
+        <v>1.047459550466824</v>
       </c>
       <c r="D8">
-        <v>1.028740261589382</v>
+        <v>1.052790365189931</v>
       </c>
       <c r="E8">
-        <v>1.023755393969925</v>
+        <v>1.054705709325667</v>
       </c>
       <c r="F8">
-        <v>1.033528414491154</v>
+        <v>1.064995609515127</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046205873212634</v>
+        <v>1.038107069945116</v>
       </c>
       <c r="J8">
-        <v>1.03074705537124</v>
+        <v>1.052391502631021</v>
       </c>
       <c r="K8">
-        <v>1.039544507173541</v>
+        <v>1.055475773890704</v>
       </c>
       <c r="L8">
-        <v>1.034622917639548</v>
+        <v>1.057385959144166</v>
       </c>
       <c r="M8">
-        <v>1.044272595418682</v>
+        <v>1.067648487268583</v>
       </c>
       <c r="N8">
-        <v>1.013525461681091</v>
+        <v>1.021224740712406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9952538880303147</v>
+        <v>1.044619842283873</v>
       </c>
       <c r="D9">
-        <v>1.017886791658318</v>
+        <v>1.050571714146237</v>
       </c>
       <c r="E9">
-        <v>1.011895166518808</v>
+        <v>1.052206363938162</v>
       </c>
       <c r="F9">
-        <v>1.02101308828</v>
+        <v>1.0623559623771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042641546443553</v>
+        <v>1.03756963545884</v>
       </c>
       <c r="J9">
-        <v>1.020975364185124</v>
+        <v>1.050365686101175</v>
       </c>
       <c r="K9">
-        <v>1.030696184013485</v>
+        <v>1.053687478516552</v>
       </c>
       <c r="L9">
-        <v>1.024798156553807</v>
+        <v>1.055316965257354</v>
       </c>
       <c r="M9">
-        <v>1.033774200149052</v>
+        <v>1.065434894493468</v>
       </c>
       <c r="N9">
-        <v>1.010125860682759</v>
+        <v>1.020533001049828</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9852440314032134</v>
+        <v>1.042726148098697</v>
       </c>
       <c r="D10">
-        <v>1.010232459785528</v>
+        <v>1.049091070383678</v>
       </c>
       <c r="E10">
-        <v>1.003548556661792</v>
+        <v>1.05054123047221</v>
       </c>
       <c r="F10">
-        <v>1.012204684665567</v>
+        <v>1.060597284537548</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040063483620079</v>
+        <v>1.037203603101668</v>
       </c>
       <c r="J10">
-        <v>1.014055583818598</v>
+        <v>1.049012018269528</v>
       </c>
       <c r="K10">
-        <v>1.024419389480328</v>
+        <v>1.052490539022368</v>
       </c>
       <c r="L10">
-        <v>1.01785403504676</v>
+        <v>1.053935666958425</v>
       </c>
       <c r="M10">
-        <v>1.026357021606637</v>
+        <v>1.063957242076702</v>
       </c>
       <c r="N10">
-        <v>1.007714913203002</v>
+        <v>1.020069819865231</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9807555755515669</v>
+        <v>1.041906000156953</v>
       </c>
       <c r="D11">
-        <v>1.006806783372929</v>
+        <v>1.048449560150633</v>
       </c>
       <c r="E11">
-        <v>0.9998168795526667</v>
+        <v>1.049820456674344</v>
       </c>
       <c r="F11">
-        <v>1.008266396687743</v>
+        <v>1.059836002081074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038894741530157</v>
+        <v>1.037043268039823</v>
       </c>
       <c r="J11">
-        <v>1.010951453667621</v>
+        <v>1.048425110954639</v>
       </c>
       <c r="K11">
-        <v>1.02160146531614</v>
+        <v>1.051971116498695</v>
       </c>
       <c r="L11">
-        <v>1.014742250083486</v>
+        <v>1.053337070450381</v>
       </c>
       <c r="M11">
-        <v>1.023034086654428</v>
+        <v>1.063316933986045</v>
       </c>
       <c r="N11">
-        <v>1.006632724253298</v>
+        <v>1.019868774680948</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9790634981716169</v>
+        <v>1.041601333462485</v>
       </c>
       <c r="D12">
-        <v>1.005516483814473</v>
+        <v>1.04821121644196</v>
       </c>
       <c r="E12">
-        <v>0.9984118635179174</v>
+        <v>1.049552764047153</v>
       </c>
       <c r="F12">
-        <v>1.006783570616379</v>
+        <v>1.059553262179297</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038452313495801</v>
+        <v>1.036983435640133</v>
       </c>
       <c r="J12">
-        <v>1.009781140542918</v>
+        <v>1.048206991986013</v>
       </c>
       <c r="K12">
-        <v>1.020538754380323</v>
+        <v>1.051778007669247</v>
       </c>
       <c r="L12">
-        <v>1.01356955309617</v>
+        <v>1.053114651019609</v>
       </c>
       <c r="M12">
-        <v>1.021781951957036</v>
+        <v>1.063079022578139</v>
       </c>
       <c r="N12">
-        <v>1.006224634655124</v>
+        <v>1.019794024416156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9794276089808409</v>
+        <v>1.041666686772137</v>
       </c>
       <c r="D13">
-        <v>1.005794084518492</v>
+        <v>1.048262344626705</v>
       </c>
       <c r="E13">
-        <v>0.9987141210000865</v>
+        <v>1.049610183466511</v>
       </c>
       <c r="F13">
-        <v>1.007102567964253</v>
+        <v>1.05961390931614</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038547598967941</v>
+        <v>1.03699628242418</v>
       </c>
       <c r="J13">
-        <v>1.010032978428156</v>
+        <v>1.048253784490065</v>
       </c>
       <c r="K13">
-        <v>1.02076745064098</v>
+        <v>1.051819437975047</v>
       </c>
       <c r="L13">
-        <v>1.013821881083924</v>
+        <v>1.053162364111044</v>
       </c>
       <c r="M13">
-        <v>1.022051366180071</v>
+        <v>1.063130058680559</v>
       </c>
       <c r="N13">
-        <v>1.006312454404833</v>
+        <v>1.019810061916146</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.980616225621928</v>
+        <v>1.041880816881855</v>
       </c>
       <c r="D14">
-        <v>1.006700497861502</v>
+        <v>1.048429859778704</v>
       </c>
       <c r="E14">
-        <v>0.9997011337624717</v>
+        <v>1.049798328414226</v>
       </c>
       <c r="F14">
-        <v>1.008144241237228</v>
+        <v>1.059812630020188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038858342337473</v>
+        <v>1.037038327923666</v>
       </c>
       <c r="J14">
-        <v>1.010855074897692</v>
+        <v>1.048407083535218</v>
       </c>
       <c r="K14">
-        <v>1.021513953858023</v>
+        <v>1.051955157580367</v>
       </c>
       <c r="L14">
-        <v>1.014645664728029</v>
+        <v>1.053318686707722</v>
       </c>
       <c r="M14">
-        <v>1.02293095585729</v>
+        <v>1.063297269639854</v>
       </c>
       <c r="N14">
-        <v>1.006599118490942</v>
+        <v>1.019862597294436</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9813452227609217</v>
+        <v>1.042012745831924</v>
       </c>
       <c r="D15">
-        <v>1.007256568084418</v>
+        <v>1.048533063647628</v>
       </c>
       <c r="E15">
-        <v>1.000306720571441</v>
+        <v>1.049914255308559</v>
       </c>
       <c r="F15">
-        <v>1.008783362910062</v>
+        <v>1.05993507291183</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039048687553621</v>
+        <v>1.037064196853883</v>
       </c>
       <c r="J15">
-        <v>1.011359268387483</v>
+        <v>1.048501520799545</v>
       </c>
       <c r="K15">
-        <v>1.021971746992268</v>
+        <v>1.052038756065494</v>
       </c>
       <c r="L15">
-        <v>1.015150959457716</v>
+        <v>1.053414992374443</v>
       </c>
       <c r="M15">
-        <v>1.023470499219308</v>
+        <v>1.063400284193144</v>
       </c>
       <c r="N15">
-        <v>1.006774919477256</v>
+        <v>1.01989495637476</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9855385260070976</v>
+        <v>1.042780574924624</v>
       </c>
       <c r="D16">
-        <v>1.010457371636924</v>
+        <v>1.049133637186394</v>
       </c>
       <c r="E16">
-        <v>1.003793635598387</v>
+        <v>1.050589070809106</v>
       </c>
       <c r="F16">
-        <v>1.012463330026881</v>
+        <v>1.060647813225885</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040139908943628</v>
+        <v>1.037214205207369</v>
       </c>
       <c r="J16">
-        <v>1.01425923131676</v>
+        <v>1.049050953251981</v>
       </c>
       <c r="K16">
-        <v>1.024604216701109</v>
+        <v>1.052524987290409</v>
       </c>
       <c r="L16">
-        <v>1.018058253507016</v>
+        <v>1.05397538351722</v>
       </c>
       <c r="M16">
-        <v>1.026575115486749</v>
+        <v>1.063999727114816</v>
       </c>
       <c r="N16">
-        <v>1.007785897995542</v>
+        <v>1.020083152333611</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9881264547487006</v>
+        <v>1.043262167790081</v>
       </c>
       <c r="D17">
-        <v>1.012434587662499</v>
+        <v>1.049510258272776</v>
       </c>
       <c r="E17">
-        <v>1.005948572300919</v>
+        <v>1.051012428147108</v>
       </c>
       <c r="F17">
-        <v>1.014737537513157</v>
+        <v>1.061094958867567</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040810077229475</v>
+        <v>1.037307808493452</v>
       </c>
       <c r="J17">
-        <v>1.016048688595762</v>
+        <v>1.049395393303989</v>
       </c>
       <c r="K17">
-        <v>1.026228050488189</v>
+        <v>1.05282968147179</v>
       </c>
       <c r="L17">
-        <v>1.019853099251</v>
+        <v>1.05432677136547</v>
       </c>
       <c r="M17">
-        <v>1.028492006128773</v>
+        <v>1.06437561389399</v>
       </c>
       <c r="N17">
-        <v>1.008409569882684</v>
+        <v>1.020201072703433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9896212031162063</v>
+        <v>1.043543056914816</v>
       </c>
       <c r="D18">
-        <v>1.013577207027119</v>
+        <v>1.049729898212838</v>
       </c>
       <c r="E18">
-        <v>1.007194259543778</v>
+        <v>1.051259388557</v>
       </c>
       <c r="F18">
-        <v>1.016052156428024</v>
+        <v>1.061355794275276</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041195947920007</v>
+        <v>1.037362228131671</v>
       </c>
       <c r="J18">
-        <v>1.017082125433117</v>
+        <v>1.049596226094993</v>
       </c>
       <c r="K18">
-        <v>1.027165624575683</v>
+        <v>1.053007294520421</v>
       </c>
       <c r="L18">
-        <v>1.02088995554131</v>
+        <v>1.054531683212684</v>
       </c>
       <c r="M18">
-        <v>1.029599444237555</v>
+        <v>1.064594816555253</v>
       </c>
       <c r="N18">
-        <v>1.00876968515645</v>
+        <v>1.020269806917803</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9901284216813689</v>
+        <v>1.04363883022923</v>
       </c>
       <c r="D19">
-        <v>1.013965035661969</v>
+        <v>1.049804783546527</v>
       </c>
       <c r="E19">
-        <v>1.007617134342206</v>
+        <v>1.051343599651956</v>
       </c>
       <c r="F19">
-        <v>1.016498429024799</v>
+        <v>1.061444736333753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041326679555746</v>
+        <v>1.037380753710572</v>
       </c>
       <c r="J19">
-        <v>1.017432781490317</v>
+        <v>1.049664692497159</v>
       </c>
       <c r="K19">
-        <v>1.027483716355583</v>
+        <v>1.053067837364733</v>
       </c>
       <c r="L19">
-        <v>1.02124182369348</v>
+        <v>1.054601544963179</v>
       </c>
       <c r="M19">
-        <v>1.029975278065196</v>
+        <v>1.064669551273927</v>
       </c>
       <c r="N19">
-        <v>1.008891864772623</v>
+        <v>1.02029323558968</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9878503316417164</v>
+        <v>1.043210499090284</v>
       </c>
       <c r="D20">
-        <v>1.012223561259522</v>
+        <v>1.049469854204934</v>
       </c>
       <c r="E20">
-        <v>1.005718540356133</v>
+        <v>1.050967003517451</v>
       </c>
       <c r="F20">
-        <v>1.014494775286087</v>
+        <v>1.061046982011326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040738697469561</v>
+        <v>1.037297784116509</v>
       </c>
       <c r="J20">
-        <v>1.015857772192716</v>
+        <v>1.049358445734064</v>
       </c>
       <c r="K20">
-        <v>1.026054826259169</v>
+        <v>1.052797002045995</v>
       </c>
       <c r="L20">
-        <v>1.019661575943536</v>
+        <v>1.054289075618417</v>
       </c>
       <c r="M20">
-        <v>1.02828745153535</v>
+        <v>1.064335289539889</v>
       </c>
       <c r="N20">
-        <v>1.008343037148986</v>
+        <v>1.020188425801089</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9802669086071751</v>
+        <v>1.041817761671919</v>
       </c>
       <c r="D21">
-        <v>1.006434084088721</v>
+        <v>1.048380532356717</v>
       </c>
       <c r="E21">
-        <v>0.9994110155655295</v>
+        <v>1.049742923464043</v>
       </c>
       <c r="F21">
-        <v>1.007838056859319</v>
+        <v>1.059754110789126</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038767069071376</v>
+        <v>1.037025954215865</v>
       </c>
       <c r="J21">
-        <v>1.010613474944681</v>
+        <v>1.048361943984586</v>
       </c>
       <c r="K21">
-        <v>1.021294577508854</v>
+        <v>1.051915196299744</v>
       </c>
       <c r="L21">
-        <v>1.014403555035795</v>
+        <v>1.053272655652105</v>
       </c>
       <c r="M21">
-        <v>1.022672440980117</v>
+        <v>1.063248032189707</v>
       </c>
       <c r="N21">
-        <v>1.006514875072795</v>
+        <v>1.019847128956274</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9753540763342947</v>
+        <v>1.040941933676985</v>
       </c>
       <c r="D22">
-        <v>1.002690092467708</v>
+        <v>1.047695295041141</v>
       </c>
       <c r="E22">
-        <v>0.9953351411321207</v>
+        <v>1.0489734968065</v>
       </c>
       <c r="F22">
-        <v>1.003536428213325</v>
+        <v>1.058941429154278</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037479134093152</v>
+        <v>1.036853442238767</v>
       </c>
       <c r="J22">
-        <v>1.007215454583213</v>
+        <v>1.047734735148788</v>
       </c>
       <c r="K22">
-        <v>1.018208445805033</v>
+        <v>1.051359773402232</v>
       </c>
       <c r="L22">
-        <v>1.010999579692199</v>
+        <v>1.052633163168347</v>
       </c>
       <c r="M22">
-        <v>1.019038151803329</v>
+        <v>1.062564010468122</v>
       </c>
       <c r="N22">
-        <v>1.00532983834875</v>
+        <v>1.019632118808455</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9779728056570167</v>
+        <v>1.0414062424849</v>
       </c>
       <c r="D23">
-        <v>1.004685108642248</v>
+        <v>1.048058584593077</v>
       </c>
       <c r="E23">
-        <v>0.9975067211661975</v>
+        <v>1.0493813657802</v>
       </c>
       <c r="F23">
-        <v>1.00582829646755</v>
+        <v>1.05937222873535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038166624540301</v>
+        <v>1.036945046022539</v>
       </c>
       <c r="J23">
-        <v>1.00902675282961</v>
+        <v>1.048067294216126</v>
       </c>
       <c r="K23">
-        <v>1.019853646327757</v>
+        <v>1.051654308369891</v>
       </c>
       <c r="L23">
-        <v>1.012813771830822</v>
+        <v>1.052972211269371</v>
       </c>
       <c r="M23">
-        <v>1.020975014120109</v>
+        <v>1.062926663503638</v>
       </c>
       <c r="N23">
-        <v>1.005961556833643</v>
+        <v>1.019746139983286</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9879751452334805</v>
+        <v>1.043233846000673</v>
       </c>
       <c r="D24">
-        <v>1.012318947858568</v>
+        <v>1.04948811117777</v>
       </c>
       <c r="E24">
-        <v>1.005822516567183</v>
+        <v>1.050987528880645</v>
       </c>
       <c r="F24">
-        <v>1.014604505727243</v>
+        <v>1.061068660616843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040770966414169</v>
+        <v>1.03730231424969</v>
       </c>
       <c r="J24">
-        <v>1.01594407091815</v>
+        <v>1.049375140976983</v>
       </c>
       <c r="K24">
-        <v>1.026133128366815</v>
+        <v>1.052811768811556</v>
       </c>
       <c r="L24">
-        <v>1.019748148050612</v>
+        <v>1.054306108848435</v>
       </c>
       <c r="M24">
-        <v>1.028379913784662</v>
+        <v>1.064353510521205</v>
       </c>
       <c r="N24">
-        <v>1.008373111716651</v>
+        <v>1.020194140536353</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9990085872024981</v>
+        <v>1.045354064571185</v>
       </c>
       <c r="D25">
-        <v>1.020762710644757</v>
+        <v>1.051145557872126</v>
       </c>
       <c r="E25">
-        <v>1.015034690843828</v>
+        <v>1.0528523073788</v>
       </c>
       <c r="F25">
-        <v>1.024326166485197</v>
+        <v>1.063038178752019</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043597162110721</v>
+        <v>1.037709939156788</v>
       </c>
       <c r="J25">
-        <v>1.023569362469639</v>
+        <v>1.050889954604621</v>
       </c>
       <c r="K25">
-        <v>1.033047040921115</v>
+        <v>1.054150628720267</v>
       </c>
       <c r="L25">
-        <v>1.027404011228402</v>
+        <v>1.055852193094793</v>
       </c>
       <c r="M25">
-        <v>1.036558232160342</v>
+        <v>1.066007496710928</v>
       </c>
       <c r="N25">
-        <v>1.011028980019145</v>
+        <v>1.020712187680288</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_82/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_82/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047044734400626</v>
+        <v>1.007401187934513</v>
       </c>
       <c r="D2">
-        <v>1.052466404352467</v>
+        <v>1.027199371052761</v>
       </c>
       <c r="E2">
-        <v>1.054340431559038</v>
+        <v>1.022069470743798</v>
       </c>
       <c r="F2">
-        <v>1.064609835100087</v>
+        <v>1.031749465897171</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038029452620505</v>
+        <v>1.045707125294239</v>
       </c>
       <c r="J2">
-        <v>1.052095896572654</v>
+        <v>1.029362761959043</v>
       </c>
       <c r="K2">
-        <v>1.055215058576436</v>
+        <v>1.038292347204183</v>
       </c>
       <c r="L2">
-        <v>1.057083911176821</v>
+        <v>1.033229672104295</v>
       </c>
       <c r="M2">
-        <v>1.067325308703815</v>
+        <v>1.042783514725916</v>
       </c>
       <c r="N2">
-        <v>1.02112391404475</v>
+        <v>1.013044311190115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048272115889042</v>
+        <v>1.013282456892378</v>
       </c>
       <c r="D3">
-        <v>1.053424818691119</v>
+        <v>1.031716047031034</v>
       </c>
       <c r="E3">
-        <v>1.055421418262427</v>
+        <v>1.027013503363858</v>
       </c>
       <c r="F3">
-        <v>1.065751470073832</v>
+        <v>1.036966193035235</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038258200611557</v>
+        <v>1.047161555011852</v>
       </c>
       <c r="J3">
-        <v>1.052970224662383</v>
+        <v>1.03341746337129</v>
       </c>
       <c r="K3">
-        <v>1.055985950634162</v>
+        <v>1.041958581569992</v>
       </c>
       <c r="L3">
-        <v>1.057977437212162</v>
+        <v>1.037312025798315</v>
       </c>
       <c r="M3">
-        <v>1.068281364930155</v>
+        <v>1.047146962299124</v>
       </c>
       <c r="N3">
-        <v>1.021422019144648</v>
+        <v>1.01445313600361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049066238001243</v>
+        <v>1.016996774736544</v>
       </c>
       <c r="D4">
-        <v>1.054044687540243</v>
+        <v>1.034570771316697</v>
       </c>
       <c r="E4">
-        <v>1.05612111705602</v>
+        <v>1.03014203165466</v>
       </c>
       <c r="F4">
-        <v>1.066490411094013</v>
+        <v>1.040267102510365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038404714845887</v>
+        <v>1.048068555808777</v>
       </c>
       <c r="J4">
-        <v>1.053535382884935</v>
+        <v>1.035975472506988</v>
       </c>
       <c r="K4">
-        <v>1.056483859536556</v>
+        <v>1.044269120790576</v>
       </c>
       <c r="L4">
-        <v>1.058555240284797</v>
+        <v>1.039889786228904</v>
       </c>
       <c r="M4">
-        <v>1.068899637731533</v>
+        <v>1.049902665862185</v>
       </c>
       <c r="N4">
-        <v>1.021614524083828</v>
+        <v>1.015341082701012</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049400070545994</v>
+        <v>1.018537400105179</v>
       </c>
       <c r="D5">
-        <v>1.054305211671077</v>
+        <v>1.03575530325793</v>
       </c>
       <c r="E5">
-        <v>1.056415325838009</v>
+        <v>1.031441085150985</v>
       </c>
       <c r="F5">
-        <v>1.066801117040787</v>
+        <v>1.041637689500028</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038465950209697</v>
+        <v>1.048441938685611</v>
       </c>
       <c r="J5">
-        <v>1.053772834888132</v>
+        <v>1.037035774985428</v>
       </c>
       <c r="K5">
-        <v>1.056692963213635</v>
+        <v>1.045226250434471</v>
       </c>
       <c r="L5">
-        <v>1.058798061353286</v>
+        <v>1.040958823874475</v>
       </c>
       <c r="M5">
-        <v>1.06915947429459</v>
+        <v>1.051045601629333</v>
       </c>
       <c r="N5">
-        <v>1.02169536021553</v>
+        <v>1.015708925887729</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049456121588951</v>
+        <v>1.018794880975956</v>
       </c>
       <c r="D6">
-        <v>1.0543489508038</v>
+        <v>1.035953295187843</v>
       </c>
       <c r="E6">
-        <v>1.056464728059505</v>
+        <v>1.031658273269552</v>
       </c>
       <c r="F6">
-        <v>1.066853289194169</v>
+        <v>1.041866834633777</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038476210835503</v>
+        <v>1.048504173739504</v>
       </c>
       <c r="J6">
-        <v>1.053812695909432</v>
+        <v>1.037212937544499</v>
       </c>
       <c r="K6">
-        <v>1.056728059919863</v>
+        <v>1.045386138540932</v>
       </c>
       <c r="L6">
-        <v>1.058838826979425</v>
+        <v>1.041137478059984</v>
       </c>
       <c r="M6">
-        <v>1.069203097015113</v>
+        <v>1.051236611297501</v>
       </c>
       <c r="N6">
-        <v>1.021708927512667</v>
+        <v>1.015770374782639</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049070698750257</v>
+        <v>1.017017441426069</v>
       </c>
       <c r="D7">
-        <v>1.05404816894585</v>
+        <v>1.034586659529288</v>
       </c>
       <c r="E7">
-        <v>1.056125048069448</v>
+        <v>1.030159452326217</v>
       </c>
       <c r="F7">
-        <v>1.066494562544371</v>
+        <v>1.040285482642246</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038405534487151</v>
+        <v>1.048073575775248</v>
       </c>
       <c r="J7">
-        <v>1.053538556281278</v>
+        <v>1.035989698783671</v>
       </c>
       <c r="K7">
-        <v>1.056486654442948</v>
+        <v>1.044281965161341</v>
       </c>
       <c r="L7">
-        <v>1.05855848521405</v>
+        <v>1.039904127545572</v>
       </c>
       <c r="M7">
-        <v>1.06890311001474</v>
+        <v>1.049917998136852</v>
       </c>
       <c r="N7">
-        <v>1.021615604585159</v>
+        <v>1.015346018979425</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047459550466824</v>
+        <v>1.009408291598088</v>
       </c>
       <c r="D8">
-        <v>1.052790365189931</v>
+        <v>1.028740261589382</v>
       </c>
       <c r="E8">
-        <v>1.054705709325667</v>
+        <v>1.023755393969925</v>
       </c>
       <c r="F8">
-        <v>1.064995609515127</v>
+        <v>1.033528414491154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038107069945116</v>
+        <v>1.046205873212634</v>
       </c>
       <c r="J8">
-        <v>1.052391502631021</v>
+        <v>1.03074705537124</v>
       </c>
       <c r="K8">
-        <v>1.055475773890704</v>
+        <v>1.039544507173541</v>
       </c>
       <c r="L8">
-        <v>1.057385959144166</v>
+        <v>1.034622917639548</v>
       </c>
       <c r="M8">
-        <v>1.067648487268583</v>
+        <v>1.044272595418683</v>
       </c>
       <c r="N8">
-        <v>1.021224740712406</v>
+        <v>1.013525461681091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044619842283873</v>
+        <v>0.995253888030314</v>
       </c>
       <c r="D9">
-        <v>1.050571714146237</v>
+        <v>1.017886791658317</v>
       </c>
       <c r="E9">
-        <v>1.052206363938162</v>
+        <v>1.011895166518808</v>
       </c>
       <c r="F9">
-        <v>1.0623559623771</v>
+        <v>1.02101308828</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03756963545884</v>
+        <v>1.042641546443553</v>
       </c>
       <c r="J9">
-        <v>1.050365686101175</v>
+        <v>1.020975364185123</v>
       </c>
       <c r="K9">
-        <v>1.053687478516552</v>
+        <v>1.030696184013485</v>
       </c>
       <c r="L9">
-        <v>1.055316965257354</v>
+        <v>1.024798156553807</v>
       </c>
       <c r="M9">
-        <v>1.065434894493468</v>
+        <v>1.033774200149052</v>
       </c>
       <c r="N9">
-        <v>1.020533001049828</v>
+        <v>1.010125860682759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042726148098697</v>
+        <v>0.9852440314032129</v>
       </c>
       <c r="D10">
-        <v>1.049091070383678</v>
+        <v>1.010232459785528</v>
       </c>
       <c r="E10">
-        <v>1.05054123047221</v>
+        <v>1.003548556661792</v>
       </c>
       <c r="F10">
-        <v>1.060597284537548</v>
+        <v>1.012204684665567</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037203603101668</v>
+        <v>1.040063483620079</v>
       </c>
       <c r="J10">
-        <v>1.049012018269528</v>
+        <v>1.014055583818597</v>
       </c>
       <c r="K10">
-        <v>1.052490539022368</v>
+        <v>1.024419389480327</v>
       </c>
       <c r="L10">
-        <v>1.053935666958425</v>
+        <v>1.01785403504676</v>
       </c>
       <c r="M10">
-        <v>1.063957242076702</v>
+        <v>1.026357021606637</v>
       </c>
       <c r="N10">
-        <v>1.020069819865231</v>
+        <v>1.007714913203002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041906000156953</v>
+        <v>0.9807555755515659</v>
       </c>
       <c r="D11">
-        <v>1.048449560150633</v>
+        <v>1.006806783372928</v>
       </c>
       <c r="E11">
-        <v>1.049820456674344</v>
+        <v>0.9998168795526658</v>
       </c>
       <c r="F11">
-        <v>1.059836002081074</v>
+        <v>1.008266396687742</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037043268039823</v>
+        <v>1.038894741530157</v>
       </c>
       <c r="J11">
-        <v>1.048425110954639</v>
+        <v>1.010951453667621</v>
       </c>
       <c r="K11">
-        <v>1.051971116498695</v>
+        <v>1.02160146531614</v>
       </c>
       <c r="L11">
-        <v>1.053337070450381</v>
+        <v>1.014742250083485</v>
       </c>
       <c r="M11">
-        <v>1.063316933986045</v>
+        <v>1.023034086654427</v>
       </c>
       <c r="N11">
-        <v>1.019868774680948</v>
+        <v>1.006632724253298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041601333462485</v>
+        <v>0.9790634981716182</v>
       </c>
       <c r="D12">
-        <v>1.04821121644196</v>
+        <v>1.005516483814475</v>
       </c>
       <c r="E12">
-        <v>1.049552764047153</v>
+        <v>0.9984118635179189</v>
       </c>
       <c r="F12">
-        <v>1.059553262179297</v>
+        <v>1.006783570616381</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036983435640133</v>
+        <v>1.038452313495801</v>
       </c>
       <c r="J12">
-        <v>1.048206991986013</v>
+        <v>1.00978114054292</v>
       </c>
       <c r="K12">
-        <v>1.051778007669247</v>
+        <v>1.020538754380324</v>
       </c>
       <c r="L12">
-        <v>1.053114651019609</v>
+        <v>1.013569553096172</v>
       </c>
       <c r="M12">
-        <v>1.063079022578139</v>
+        <v>1.021781951957038</v>
       </c>
       <c r="N12">
-        <v>1.019794024416156</v>
+        <v>1.006224634655124</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041666686772137</v>
+        <v>0.9794276089808409</v>
       </c>
       <c r="D13">
-        <v>1.048262344626705</v>
+        <v>1.005794084518493</v>
       </c>
       <c r="E13">
-        <v>1.049610183466511</v>
+        <v>0.9987141210000867</v>
       </c>
       <c r="F13">
-        <v>1.05961390931614</v>
+        <v>1.007102567964253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03699628242418</v>
+        <v>1.038547598967941</v>
       </c>
       <c r="J13">
-        <v>1.048253784490065</v>
+        <v>1.010032978428157</v>
       </c>
       <c r="K13">
-        <v>1.051819437975047</v>
+        <v>1.02076745064098</v>
       </c>
       <c r="L13">
-        <v>1.053162364111044</v>
+        <v>1.013821881083924</v>
       </c>
       <c r="M13">
-        <v>1.063130058680559</v>
+        <v>1.022051366180072</v>
       </c>
       <c r="N13">
-        <v>1.019810061916146</v>
+        <v>1.006312454404833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041880816881855</v>
+        <v>0.9806162256219279</v>
       </c>
       <c r="D14">
-        <v>1.048429859778704</v>
+        <v>1.006700497861502</v>
       </c>
       <c r="E14">
-        <v>1.049798328414226</v>
+        <v>0.9997011337624712</v>
       </c>
       <c r="F14">
-        <v>1.059812630020188</v>
+        <v>1.008144241237228</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037038327923666</v>
+        <v>1.038858342337473</v>
       </c>
       <c r="J14">
-        <v>1.048407083535218</v>
+        <v>1.010855074897692</v>
       </c>
       <c r="K14">
-        <v>1.051955157580367</v>
+        <v>1.021513953858023</v>
       </c>
       <c r="L14">
-        <v>1.053318686707722</v>
+        <v>1.014645664728028</v>
       </c>
       <c r="M14">
-        <v>1.063297269639854</v>
+        <v>1.02293095585729</v>
       </c>
       <c r="N14">
-        <v>1.019862597294436</v>
+        <v>1.006599118490942</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042012745831924</v>
+        <v>0.9813452227609207</v>
       </c>
       <c r="D15">
-        <v>1.048533063647628</v>
+        <v>1.007256568084417</v>
       </c>
       <c r="E15">
-        <v>1.049914255308559</v>
+        <v>1.00030672057144</v>
       </c>
       <c r="F15">
-        <v>1.05993507291183</v>
+        <v>1.008783362910061</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037064196853883</v>
+        <v>1.039048687553621</v>
       </c>
       <c r="J15">
-        <v>1.048501520799545</v>
+        <v>1.011359268387482</v>
       </c>
       <c r="K15">
-        <v>1.052038756065494</v>
+        <v>1.021971746992267</v>
       </c>
       <c r="L15">
-        <v>1.053414992374443</v>
+        <v>1.015150959457716</v>
       </c>
       <c r="M15">
-        <v>1.063400284193144</v>
+        <v>1.023470499219307</v>
       </c>
       <c r="N15">
-        <v>1.01989495637476</v>
+        <v>1.006774919477255</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042780574924624</v>
+        <v>0.9855385260070976</v>
       </c>
       <c r="D16">
-        <v>1.049133637186394</v>
+        <v>1.010457371636923</v>
       </c>
       <c r="E16">
-        <v>1.050589070809106</v>
+        <v>1.003793635598386</v>
       </c>
       <c r="F16">
-        <v>1.060647813225885</v>
+        <v>1.012463330026881</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037214205207369</v>
+        <v>1.040139908943628</v>
       </c>
       <c r="J16">
-        <v>1.049050953251981</v>
+        <v>1.01425923131676</v>
       </c>
       <c r="K16">
-        <v>1.052524987290409</v>
+        <v>1.024604216701109</v>
       </c>
       <c r="L16">
-        <v>1.05397538351722</v>
+        <v>1.018058253507016</v>
       </c>
       <c r="M16">
-        <v>1.063999727114816</v>
+        <v>1.026575115486749</v>
       </c>
       <c r="N16">
-        <v>1.020083152333611</v>
+        <v>1.007785897995542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043262167790081</v>
+        <v>0.9881264547487008</v>
       </c>
       <c r="D17">
-        <v>1.049510258272776</v>
+        <v>1.012434587662499</v>
       </c>
       <c r="E17">
-        <v>1.051012428147108</v>
+        <v>1.005948572300919</v>
       </c>
       <c r="F17">
-        <v>1.061094958867567</v>
+        <v>1.014737537513157</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037307808493452</v>
+        <v>1.040810077229475</v>
       </c>
       <c r="J17">
-        <v>1.049395393303989</v>
+        <v>1.016048688595762</v>
       </c>
       <c r="K17">
-        <v>1.05282968147179</v>
+        <v>1.02622805048819</v>
       </c>
       <c r="L17">
-        <v>1.05432677136547</v>
+        <v>1.019853099251</v>
       </c>
       <c r="M17">
-        <v>1.06437561389399</v>
+        <v>1.028492006128773</v>
       </c>
       <c r="N17">
-        <v>1.020201072703433</v>
+        <v>1.008409569882684</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043543056914816</v>
+        <v>0.9896212031162073</v>
       </c>
       <c r="D18">
-        <v>1.049729898212838</v>
+        <v>1.01357720702712</v>
       </c>
       <c r="E18">
-        <v>1.051259388557</v>
+        <v>1.007194259543779</v>
       </c>
       <c r="F18">
-        <v>1.061355794275276</v>
+        <v>1.016052156428025</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037362228131671</v>
+        <v>1.041195947920008</v>
       </c>
       <c r="J18">
-        <v>1.049596226094993</v>
+        <v>1.017082125433118</v>
       </c>
       <c r="K18">
-        <v>1.053007294520421</v>
+        <v>1.027165624575684</v>
       </c>
       <c r="L18">
-        <v>1.054531683212684</v>
+        <v>1.020889955541311</v>
       </c>
       <c r="M18">
-        <v>1.064594816555253</v>
+        <v>1.029599444237556</v>
       </c>
       <c r="N18">
-        <v>1.020269806917803</v>
+        <v>1.00876968515645</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04363883022923</v>
+        <v>0.9901284216813677</v>
       </c>
       <c r="D19">
-        <v>1.049804783546527</v>
+        <v>1.013965035661968</v>
       </c>
       <c r="E19">
-        <v>1.051343599651956</v>
+        <v>1.007617134342205</v>
       </c>
       <c r="F19">
-        <v>1.061444736333753</v>
+        <v>1.016498429024797</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037380753710572</v>
+        <v>1.041326679555746</v>
       </c>
       <c r="J19">
-        <v>1.049664692497159</v>
+        <v>1.017432781490317</v>
       </c>
       <c r="K19">
-        <v>1.053067837364733</v>
+        <v>1.027483716355582</v>
       </c>
       <c r="L19">
-        <v>1.054601544963179</v>
+        <v>1.021241823693479</v>
       </c>
       <c r="M19">
-        <v>1.064669551273927</v>
+        <v>1.029975278065195</v>
       </c>
       <c r="N19">
-        <v>1.02029323558968</v>
+        <v>1.008891864772623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043210499090284</v>
+        <v>0.9878503316417179</v>
       </c>
       <c r="D20">
-        <v>1.049469854204934</v>
+        <v>1.012223561259523</v>
       </c>
       <c r="E20">
-        <v>1.050967003517451</v>
+        <v>1.005718540356134</v>
       </c>
       <c r="F20">
-        <v>1.061046982011326</v>
+        <v>1.014494775286088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037297784116509</v>
+        <v>1.040738697469562</v>
       </c>
       <c r="J20">
-        <v>1.049358445734064</v>
+        <v>1.015857772192718</v>
       </c>
       <c r="K20">
-        <v>1.052797002045995</v>
+        <v>1.02605482625917</v>
       </c>
       <c r="L20">
-        <v>1.054289075618417</v>
+        <v>1.019661575943537</v>
       </c>
       <c r="M20">
-        <v>1.064335289539889</v>
+        <v>1.028287451535351</v>
       </c>
       <c r="N20">
-        <v>1.020188425801089</v>
+        <v>1.008343037148987</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041817761671919</v>
+        <v>0.9802669086071747</v>
       </c>
       <c r="D21">
-        <v>1.048380532356717</v>
+        <v>1.006434084088721</v>
       </c>
       <c r="E21">
-        <v>1.049742923464043</v>
+        <v>0.9994110155655295</v>
       </c>
       <c r="F21">
-        <v>1.059754110789126</v>
+        <v>1.007838056859319</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037025954215865</v>
+        <v>1.038767069071376</v>
       </c>
       <c r="J21">
-        <v>1.048361943984586</v>
+        <v>1.010613474944681</v>
       </c>
       <c r="K21">
-        <v>1.051915196299744</v>
+        <v>1.021294577508854</v>
       </c>
       <c r="L21">
-        <v>1.053272655652105</v>
+        <v>1.014403555035795</v>
       </c>
       <c r="M21">
-        <v>1.063248032189707</v>
+        <v>1.022672440980117</v>
       </c>
       <c r="N21">
-        <v>1.019847128956274</v>
+        <v>1.006514875072795</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040941933676985</v>
+        <v>0.9753540763342951</v>
       </c>
       <c r="D22">
-        <v>1.047695295041141</v>
+        <v>1.002690092467708</v>
       </c>
       <c r="E22">
-        <v>1.0489734968065</v>
+        <v>0.9953351411321211</v>
       </c>
       <c r="F22">
-        <v>1.058941429154278</v>
+        <v>1.003536428213326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036853442238767</v>
+        <v>1.037479134093152</v>
       </c>
       <c r="J22">
-        <v>1.047734735148788</v>
+        <v>1.007215454583213</v>
       </c>
       <c r="K22">
-        <v>1.051359773402232</v>
+        <v>1.018208445805034</v>
       </c>
       <c r="L22">
-        <v>1.052633163168347</v>
+        <v>1.0109995796922</v>
       </c>
       <c r="M22">
-        <v>1.062564010468122</v>
+        <v>1.01903815180333</v>
       </c>
       <c r="N22">
-        <v>1.019632118808455</v>
+        <v>1.00532983834875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0414062424849</v>
+        <v>0.9779728056570157</v>
       </c>
       <c r="D23">
-        <v>1.048058584593077</v>
+        <v>1.004685108642247</v>
       </c>
       <c r="E23">
-        <v>1.0493813657802</v>
+        <v>0.9975067211661965</v>
       </c>
       <c r="F23">
-        <v>1.05937222873535</v>
+        <v>1.005828296467548</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036945046022539</v>
+        <v>1.0381666245403</v>
       </c>
       <c r="J23">
-        <v>1.048067294216126</v>
+        <v>1.009026752829609</v>
       </c>
       <c r="K23">
-        <v>1.051654308369891</v>
+        <v>1.019853646327756</v>
       </c>
       <c r="L23">
-        <v>1.052972211269371</v>
+        <v>1.012813771830821</v>
       </c>
       <c r="M23">
-        <v>1.062926663503638</v>
+        <v>1.020975014120108</v>
       </c>
       <c r="N23">
-        <v>1.019746139983286</v>
+        <v>1.005961556833643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043233846000673</v>
+        <v>0.9879751452334806</v>
       </c>
       <c r="D24">
-        <v>1.04948811117777</v>
+        <v>1.012318947858568</v>
       </c>
       <c r="E24">
-        <v>1.050987528880645</v>
+        <v>1.005822516567183</v>
       </c>
       <c r="F24">
-        <v>1.061068660616843</v>
+        <v>1.014604505727243</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03730231424969</v>
+        <v>1.040770966414169</v>
       </c>
       <c r="J24">
-        <v>1.049375140976983</v>
+        <v>1.01594407091815</v>
       </c>
       <c r="K24">
-        <v>1.052811768811556</v>
+        <v>1.026133128366815</v>
       </c>
       <c r="L24">
-        <v>1.054306108848435</v>
+        <v>1.019748148050613</v>
       </c>
       <c r="M24">
-        <v>1.064353510521205</v>
+        <v>1.028379913784662</v>
       </c>
       <c r="N24">
-        <v>1.020194140536353</v>
+        <v>1.008373111716651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.045354064571185</v>
+        <v>0.999008587202498</v>
       </c>
       <c r="D25">
-        <v>1.051145557872126</v>
+        <v>1.020762710644757</v>
       </c>
       <c r="E25">
-        <v>1.0528523073788</v>
+        <v>1.015034690843828</v>
       </c>
       <c r="F25">
-        <v>1.063038178752019</v>
+        <v>1.024326166485197</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037709939156788</v>
+        <v>1.043597162110721</v>
       </c>
       <c r="J25">
-        <v>1.050889954604621</v>
+        <v>1.023569362469639</v>
       </c>
       <c r="K25">
-        <v>1.054150628720267</v>
+        <v>1.033047040921115</v>
       </c>
       <c r="L25">
-        <v>1.055852193094793</v>
+        <v>1.027404011228402</v>
       </c>
       <c r="M25">
-        <v>1.066007496710928</v>
+        <v>1.036558232160342</v>
       </c>
       <c r="N25">
-        <v>1.020712187680288</v>
+        <v>1.011028980019145</v>
       </c>
     </row>
   </sheetData>
